--- a/generated_docs/WR_89734550_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_080325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89734550_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I143"/>
+  <dimension ref="A2:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14210.81</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +810,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,20 +820,20 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>451.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +844,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,20 +854,20 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>1</v>
+        <v>486</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>URSG-D-168</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>URSG,Distr.1.68in OD</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>10.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>URSG-D-215</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>URSG,Distr,2.15in OD</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>10.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>URSR-3-DSO</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>URSR,3in,Dist Stand Off</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>143.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,18 +1207,18 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,31 +1228,31 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>477</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>443.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>URSG-D-168</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>URSG,Distr.1.68in OD</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,18 +1275,18 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>URSG-D-215</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>URSG,Distr,2.15in OD</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,18 +1309,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>URSR-3-DSO</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>URSR,3in,Dist Stand Off</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,18 +1343,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,18 +1377,18 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>XFR-10-72-120-1B</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,31 +1432,31 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>477</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,18 +1479,18 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1500,31 +1500,31 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>644.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,18 +1547,18 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,18 +1581,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,20 +1772,20 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>693</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1819,18 +1819,18 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,31 +1840,31 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>318</v>
+        <v>1</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>295.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,18 +1887,18 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1921,18 +1921,18 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,31 +1942,31 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,18 +1989,18 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2023,18 +2023,18 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2057,18 +2057,18 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,31 +2078,31 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>293.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,18 +2125,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2155,22 +2155,22 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2193,18 +2193,18 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,31 +2214,31 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2261,18 +2261,18 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2295,18 +2295,18 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2329,18 +2329,18 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,18 +2363,18 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
@@ -2384,31 +2384,31 @@
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>638</v>
+        <v>12</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>593.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,18 +2431,18 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2465,18 +2465,18 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,18 +2499,18 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2520,31 +2520,31 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,18 +2567,18 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,18 +2601,18 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,18 +2635,18 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2669,18 +2669,18 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2703,18 +2703,18 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2737,13 +2737,13 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
@@ -2771,13 +2771,13 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
@@ -2805,18 +2805,18 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2835,22 +2835,22 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2873,18 +2873,18 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2894,31 +2894,31 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>1</v>
+        <v>638</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2941,18 +2941,18 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2975,18 +2975,18 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -3009,18 +3009,18 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3043,18 +3043,18 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3111,18 +3111,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3145,18 +3145,18 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3179,18 +3179,18 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3213,18 +3213,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3247,18 +3247,18 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3281,18 +3281,18 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3315,28 +3315,28 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3345,32 +3345,32 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3379,22 +3379,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3413,32 +3413,32 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3451,28 +3451,28 @@
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3485,18 +3485,18 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3519,18 +3519,18 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3553,28 +3553,28 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3587,18 +3587,18 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3621,28 +3621,28 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3655,18 +3655,18 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3689,28 +3689,28 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3723,18 +3723,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3757,28 +3757,28 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3791,18 +3791,18 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3825,28 +3825,28 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3859,13 +3859,13 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D108" s="9" t="inlineStr">
@@ -3889,17 +3889,17 @@
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
@@ -3923,17 +3923,17 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
@@ -3957,17 +3957,17 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D111" s="12" t="inlineStr">
@@ -3995,13 +3995,13 @@
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
@@ -4029,13 +4029,13 @@
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
@@ -4063,13 +4063,13 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D114" s="9" t="inlineStr">
@@ -4097,13 +4097,13 @@
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D115" s="12" t="inlineStr">
@@ -4131,13 +4131,13 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
@@ -4165,13 +4165,13 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D117" s="12" t="inlineStr">
@@ -4199,13 +4199,13 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
@@ -4233,13 +4233,13 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
@@ -4267,13 +4267,13 @@
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
@@ -4301,13 +4301,13 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
@@ -4335,13 +4335,13 @@
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
@@ -4369,13 +4369,13 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C123" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D123" s="12" t="inlineStr">
@@ -4403,13 +4403,13 @@
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B124" s="9" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="C124" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D124" s="9" t="inlineStr">
@@ -4437,13 +4437,13 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B125" s="12" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="C125" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D125" s="12" t="inlineStr">
@@ -4471,13 +4471,13 @@
       </c>
       <c r="G125" s="13" t="inlineStr"/>
       <c r="H125" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B126" s="9" t="inlineStr">
@@ -4505,13 +4505,13 @@
       </c>
       <c r="G126" s="10" t="inlineStr"/>
       <c r="H126" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B127" s="12" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C127" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D127" s="12" t="inlineStr">
@@ -4539,13 +4539,13 @@
       </c>
       <c r="G127" s="13" t="inlineStr"/>
       <c r="H127" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B128" s="9" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="C128" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D128" s="9" t="inlineStr">
@@ -4573,13 +4573,13 @@
       </c>
       <c r="G128" s="10" t="inlineStr"/>
       <c r="H128" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B129" s="12" t="inlineStr">
@@ -4607,13 +4607,13 @@
       </c>
       <c r="G129" s="13" t="inlineStr"/>
       <c r="H129" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B130" s="9" t="inlineStr">
@@ -4641,13 +4641,13 @@
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B131" s="12" t="inlineStr">
@@ -4675,13 +4675,13 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B132" s="9" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D132" s="9" t="inlineStr">
@@ -4709,13 +4709,13 @@
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B133" s="12" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D133" s="12" t="inlineStr">
@@ -4743,13 +4743,13 @@
       </c>
       <c r="G133" s="13" t="inlineStr"/>
       <c r="H133" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B134" s="9" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="C134" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D134" s="9" t="inlineStr">
@@ -4777,13 +4777,13 @@
       </c>
       <c r="G134" s="10" t="inlineStr"/>
       <c r="H134" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B135" s="12" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="C135" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D135" s="12" t="inlineStr">
@@ -4811,13 +4811,13 @@
       </c>
       <c r="G135" s="13" t="inlineStr"/>
       <c r="H135" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B136" s="9" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C136" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D136" s="9" t="inlineStr">
@@ -4845,13 +4845,13 @@
       </c>
       <c r="G136" s="10" t="inlineStr"/>
       <c r="H136" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B137" s="12" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="C137" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D137" s="12" t="inlineStr">
@@ -4879,13 +4879,13 @@
       </c>
       <c r="G137" s="13" t="inlineStr"/>
       <c r="H137" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B138" s="9" t="inlineStr">
@@ -4913,13 +4913,13 @@
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B139" s="12" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D139" s="12" t="inlineStr">
@@ -4947,13 +4947,13 @@
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
@@ -4981,13 +4981,13 @@
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
@@ -5015,33 +5015,33 @@
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>Pls-dloc</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>#NO MATCH</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>#NO MATCH</t>
         </is>
       </c>
       <c r="F142" s="10" t="n">
@@ -5049,23 +5049,758 @@
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="15" t="inlineStr">
+      <c r="A143" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B143" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C143" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13" t="inlineStr"/>
+      <c r="H143" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B145" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C145" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" s="13" t="inlineStr"/>
+      <c r="H145" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B147" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C147" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D147" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E147" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="13" t="inlineStr"/>
+      <c r="H147" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B149" s="12" t="inlineStr">
+        <is>
+          <t>Pls-dloc</t>
+        </is>
+      </c>
+      <c r="C149" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="E149" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="F149" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="13" t="inlineStr"/>
+      <c r="H149" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="13" t="inlineStr"/>
+      <c r="H151" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="12" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B153" s="12" t="inlineStr">
+        <is>
+          <t>Pls-dloc</t>
+        </is>
+      </c>
+      <c r="C153" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="F153" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="13" t="inlineStr"/>
+      <c r="H153" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="inlineStr">
+        <is>
+          <t>Point 40</t>
+        </is>
+      </c>
+      <c r="B154" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D154" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E154" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="10" t="inlineStr"/>
+      <c r="H154" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="12" t="inlineStr">
+        <is>
+          <t>Point 41</t>
+        </is>
+      </c>
+      <c r="B155" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C155" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D155" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E155" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="13" t="inlineStr"/>
+      <c r="H155" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B156" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C156" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D156" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E156" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="10" t="inlineStr"/>
+      <c r="H156" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="12" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B157" s="12" t="inlineStr">
+        <is>
+          <t>Pls-dloc</t>
+        </is>
+      </c>
+      <c r="C157" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D157" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="E157" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="F157" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="13" t="inlineStr"/>
+      <c r="H157" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B158" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C158" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D158" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E158" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="10" t="inlineStr"/>
+      <c r="H158" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="12" t="inlineStr">
+        <is>
+          <t>Point 45</t>
+        </is>
+      </c>
+      <c r="B159" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C159" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D159" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E159" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="13" t="inlineStr"/>
+      <c r="H159" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="inlineStr">
+        <is>
+          <t>Point 46</t>
+        </is>
+      </c>
+      <c r="B160" s="9" t="n"/>
+      <c r="C160" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D160" s="9" t="n"/>
+      <c r="E160" s="9" t="n"/>
+      <c r="F160" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="10" t="inlineStr"/>
+      <c r="H160" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="12" t="inlineStr">
+        <is>
+          <t>Point 47</t>
+        </is>
+      </c>
+      <c r="B161" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C161" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D161" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E161" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F161" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" s="13" t="inlineStr"/>
+      <c r="H161" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="inlineStr">
+        <is>
+          <t>Point 48</t>
+        </is>
+      </c>
+      <c r="B162" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C162" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D162" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E162" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" s="10" t="inlineStr"/>
+      <c r="H162" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="12" t="inlineStr">
+        <is>
+          <t>Point 49</t>
+        </is>
+      </c>
+      <c r="B163" s="12" t="inlineStr">
+        <is>
+          <t>Pls-dloc</t>
+        </is>
+      </c>
+      <c r="C163" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D163" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="E163" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="F163" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="13" t="inlineStr"/>
+      <c r="H163" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="inlineStr">
+        <is>
+          <t>Point 50</t>
+        </is>
+      </c>
+      <c r="B164" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C164" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="10" t="inlineStr"/>
+      <c r="H164" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H143" s="16" t="n">
-        <v>14210.81000000002</v>
+      <c r="H165" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A143:G143"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -5073,6 +5808,7 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A165:G165"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>

--- a/generated_docs/WR_89734550_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I165"/>
+  <dimension ref="A2:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>14210.81</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P40</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +772,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +782,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +806,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,20 +816,20 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>1</v>
+        <v>486</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>451.98</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +840,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,20 +850,20 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +874,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +908,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1044,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>URSG-D-168</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,20 +1054,20 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>URSG,Distr.1.68in OD</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1078,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>URSG-D-215</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>URSG,Distr,2.15in OD</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>URSR-3-DSO</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>URSR,3in,Dist Stand Off</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>143.3</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1165,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>XFR-10-72-120-1B</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,18 +1203,18 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,31 +1224,31 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>477</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>443.61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>URSG-D-168</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>URSG,Distr.1.68in OD</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,18 +1271,18 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>URSG-D-215</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>URSG,Distr,2.15in OD</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,18 +1305,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>URSR-3-DSO</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>URSR,3in,Dist Stand Off</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,18 +1339,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,18 +1373,18 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,18 +1407,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,31 +1428,31 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>477</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,18 +1475,18 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1500,31 +1496,31 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1</v>
+        <v>693</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>644.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1534,7 +1530,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,18 +1543,18 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1564,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,18 +1577,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,11 +1607,11 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="42">
@@ -1626,7 +1622,7 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1636,7 +1632,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1649,7 +1645,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="43">
@@ -1660,7 +1656,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1666,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1690,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1700,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,7 +1713,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="45">
@@ -1728,7 +1724,7 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1738,7 +1734,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1751,7 +1747,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="46">
@@ -1762,7 +1758,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,20 +1768,20 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1792,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1819,18 +1815,18 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,31 +1836,31 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>295.74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1874,7 +1870,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,18 +1883,18 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1908,7 +1904,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1921,18 +1917,18 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,31 +1938,31 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1976,7 +1972,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,18 +1985,18 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -2010,7 +2006,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2023,18 +2019,18 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -2044,7 +2040,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2057,18 +2053,18 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,31 +2074,31 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>293.88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +2108,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,18 +2121,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2142,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2155,22 +2151,22 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2180,7 +2176,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2193,18 +2189,18 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,31 +2210,31 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>318</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2244,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2261,18 +2257,18 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2278,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2295,18 +2291,18 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2312,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2329,18 +2325,18 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,18 +2359,18 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
@@ -2384,31 +2380,31 @@
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>12</v>
+        <v>638</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>593.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -2418,7 +2414,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,18 +2427,18 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
@@ -2452,7 +2448,7 @@
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2465,18 +2461,18 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2486,7 +2482,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,18 +2495,18 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2520,31 +2516,31 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
@@ -2554,7 +2550,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,18 +2563,18 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2588,7 +2584,7 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,18 +2597,18 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2622,7 +2618,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,18 +2631,18 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2652,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2669,18 +2665,18 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2690,7 +2686,7 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2703,18 +2699,18 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2724,7 +2720,7 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2737,13 +2733,13 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
@@ -2771,13 +2767,13 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
@@ -2805,18 +2801,18 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -2826,7 +2822,7 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2835,22 +2831,22 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2860,7 +2856,7 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2873,18 +2869,18 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2894,31 +2890,31 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>638</v>
+        <v>1</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2928,7 +2924,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2941,18 +2937,18 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2962,7 +2958,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2975,18 +2971,18 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2996,7 +2992,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -3009,18 +3005,18 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -3030,7 +3026,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3043,18 +3039,18 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -3064,7 +3060,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3073,22 +3069,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -3098,7 +3094,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3111,18 +3107,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3132,7 +3128,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3145,18 +3141,18 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3166,7 +3162,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3179,18 +3175,18 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3200,7 +3196,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3213,18 +3209,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3234,7 +3230,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3247,18 +3243,18 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3268,7 +3264,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3281,18 +3277,18 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -3302,7 +3298,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3315,28 +3311,28 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3345,32 +3341,32 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3379,22 +3375,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3404,7 +3400,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3413,32 +3409,32 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3451,28 +3447,28 @@
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3485,18 +3481,18 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3506,7 +3502,7 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3519,18 +3515,18 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3540,7 +3536,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3553,28 +3549,28 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3587,18 +3583,18 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3604,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3621,28 +3617,28 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3655,18 +3651,18 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3676,7 +3672,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3689,28 +3685,28 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3723,18 +3719,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3740,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3757,28 +3753,28 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3791,18 +3787,18 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3812,7 +3808,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3825,28 +3821,28 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3859,13 +3855,13 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
@@ -3875,7 +3871,7 @@
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D108" s="9" t="inlineStr">
@@ -3889,17 +3885,17 @@
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
@@ -3923,17 +3919,17 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
@@ -3957,17 +3953,17 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
@@ -3977,7 +3973,7 @@
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D111" s="12" t="inlineStr">
@@ -3995,13 +3991,13 @@
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
@@ -4029,13 +4025,13 @@
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
@@ -4063,13 +4059,13 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
@@ -4079,7 +4075,7 @@
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D114" s="9" t="inlineStr">
@@ -4097,13 +4093,13 @@
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
@@ -4113,7 +4109,7 @@
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D115" s="12" t="inlineStr">
@@ -4131,13 +4127,13 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
@@ -4147,7 +4143,7 @@
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
@@ -4165,13 +4161,13 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
@@ -4181,7 +4177,7 @@
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D117" s="12" t="inlineStr">
@@ -4199,13 +4195,13 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
@@ -4215,7 +4211,7 @@
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
@@ -4233,13 +4229,13 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
@@ -4267,13 +4263,13 @@
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
@@ -4301,13 +4297,13 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
@@ -4335,13 +4331,13 @@
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
@@ -4369,13 +4365,13 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
@@ -4385,7 +4381,7 @@
       </c>
       <c r="C123" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D123" s="12" t="inlineStr">
@@ -4403,13 +4399,13 @@
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B124" s="9" t="inlineStr">
@@ -4419,7 +4415,7 @@
       </c>
       <c r="C124" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D124" s="9" t="inlineStr">
@@ -4437,13 +4433,13 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B125" s="12" t="inlineStr">
@@ -4453,7 +4449,7 @@
       </c>
       <c r="C125" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D125" s="12" t="inlineStr">
@@ -4471,13 +4467,13 @@
       </c>
       <c r="G125" s="13" t="inlineStr"/>
       <c r="H125" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B126" s="9" t="inlineStr">
@@ -4505,13 +4501,13 @@
       </c>
       <c r="G126" s="10" t="inlineStr"/>
       <c r="H126" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B127" s="12" t="inlineStr">
@@ -4521,7 +4517,7 @@
       </c>
       <c r="C127" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D127" s="12" t="inlineStr">
@@ -4539,13 +4535,13 @@
       </c>
       <c r="G127" s="13" t="inlineStr"/>
       <c r="H127" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B128" s="9" t="inlineStr">
@@ -4555,7 +4551,7 @@
       </c>
       <c r="C128" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D128" s="9" t="inlineStr">
@@ -4573,13 +4569,13 @@
       </c>
       <c r="G128" s="10" t="inlineStr"/>
       <c r="H128" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B129" s="12" t="inlineStr">
@@ -4607,13 +4603,13 @@
       </c>
       <c r="G129" s="13" t="inlineStr"/>
       <c r="H129" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B130" s="9" t="inlineStr">
@@ -4641,13 +4637,13 @@
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B131" s="12" t="inlineStr">
@@ -4675,13 +4671,13 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B132" s="9" t="inlineStr">
@@ -4691,7 +4687,7 @@
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D132" s="9" t="inlineStr">
@@ -4709,13 +4705,13 @@
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B133" s="12" t="inlineStr">
@@ -4725,7 +4721,7 @@
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D133" s="12" t="inlineStr">
@@ -4743,13 +4739,13 @@
       </c>
       <c r="G133" s="13" t="inlineStr"/>
       <c r="H133" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B134" s="9" t="inlineStr">
@@ -4759,7 +4755,7 @@
       </c>
       <c r="C134" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D134" s="9" t="inlineStr">
@@ -4777,13 +4773,13 @@
       </c>
       <c r="G134" s="10" t="inlineStr"/>
       <c r="H134" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B135" s="12" t="inlineStr">
@@ -4793,7 +4789,7 @@
       </c>
       <c r="C135" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D135" s="12" t="inlineStr">
@@ -4811,13 +4807,13 @@
       </c>
       <c r="G135" s="13" t="inlineStr"/>
       <c r="H135" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B136" s="9" t="inlineStr">
@@ -4827,7 +4823,7 @@
       </c>
       <c r="C136" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D136" s="9" t="inlineStr">
@@ -4845,13 +4841,13 @@
       </c>
       <c r="G136" s="10" t="inlineStr"/>
       <c r="H136" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B137" s="12" t="inlineStr">
@@ -4861,7 +4857,7 @@
       </c>
       <c r="C137" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D137" s="12" t="inlineStr">
@@ -4879,13 +4875,13 @@
       </c>
       <c r="G137" s="13" t="inlineStr"/>
       <c r="H137" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B138" s="9" t="inlineStr">
@@ -4913,13 +4909,13 @@
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B139" s="12" t="inlineStr">
@@ -4929,7 +4925,7 @@
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D139" s="12" t="inlineStr">
@@ -4947,13 +4943,13 @@
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
@@ -4981,13 +4977,13 @@
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
@@ -5015,33 +5011,33 @@
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>Pls-dloc</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>#NO MATCH</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
         <is>
-          <t>#NO MATCH</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F142" s="10" t="n">
@@ -5049,758 +5045,23 @@
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="12" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B143" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C143" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D143" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E143" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" s="13" t="inlineStr"/>
-      <c r="H143" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B144" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C144" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D144" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E144" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="10" t="inlineStr"/>
-      <c r="H144" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="12" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B145" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C145" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D145" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E145" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" s="13" t="inlineStr"/>
-      <c r="H145" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B146" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C146" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D146" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E146" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="10" t="inlineStr"/>
-      <c r="H146" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B147" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C147" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D147" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E147" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" s="13" t="inlineStr"/>
-      <c r="H147" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B148" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C148" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D148" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E148" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="10" t="inlineStr"/>
-      <c r="H148" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B149" s="12" t="inlineStr">
-        <is>
-          <t>Pls-dloc</t>
-        </is>
-      </c>
-      <c r="C149" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D149" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="E149" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="F149" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" s="13" t="inlineStr"/>
-      <c r="H149" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B150" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C150" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D150" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E150" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="10" t="inlineStr"/>
-      <c r="H150" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B151" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C151" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D151" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E151" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="13" t="inlineStr"/>
-      <c r="H151" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B152" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C152" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E152" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="10" t="inlineStr"/>
-      <c r="H152" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="12" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B153" s="12" t="inlineStr">
-        <is>
-          <t>Pls-dloc</t>
-        </is>
-      </c>
-      <c r="C153" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D153" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="E153" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="F153" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="13" t="inlineStr"/>
-      <c r="H153" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="9" t="inlineStr">
-        <is>
-          <t>Point 40</t>
-        </is>
-      </c>
-      <c r="B154" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C154" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D154" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E154" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" s="10" t="inlineStr"/>
-      <c r="H154" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="12" t="inlineStr">
-        <is>
-          <t>Point 41</t>
-        </is>
-      </c>
-      <c r="B155" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C155" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D155" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E155" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F155" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" s="13" t="inlineStr"/>
-      <c r="H155" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B156" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C156" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D156" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E156" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F156" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="10" t="inlineStr"/>
-      <c r="H156" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="12" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B157" s="12" t="inlineStr">
-        <is>
-          <t>Pls-dloc</t>
-        </is>
-      </c>
-      <c r="C157" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D157" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="E157" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="F157" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" s="13" t="inlineStr"/>
-      <c r="H157" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="9" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B158" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C158" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D158" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E158" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F158" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" s="10" t="inlineStr"/>
-      <c r="H158" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="12" t="inlineStr">
-        <is>
-          <t>Point 45</t>
-        </is>
-      </c>
-      <c r="B159" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C159" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D159" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E159" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="13" t="inlineStr"/>
-      <c r="H159" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="9" t="inlineStr">
-        <is>
-          <t>Point 46</t>
-        </is>
-      </c>
-      <c r="B160" s="9" t="n"/>
-      <c r="C160" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D160" s="9" t="n"/>
-      <c r="E160" s="9" t="n"/>
-      <c r="F160" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" s="10" t="inlineStr"/>
-      <c r="H160" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="12" t="inlineStr">
-        <is>
-          <t>Point 47</t>
-        </is>
-      </c>
-      <c r="B161" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C161" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D161" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E161" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F161" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" s="13" t="inlineStr"/>
-      <c r="H161" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="9" t="inlineStr">
-        <is>
-          <t>Point 48</t>
-        </is>
-      </c>
-      <c r="B162" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C162" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D162" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E162" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F162" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" s="10" t="inlineStr"/>
-      <c r="H162" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="12" t="inlineStr">
-        <is>
-          <t>Point 49</t>
-        </is>
-      </c>
-      <c r="B163" s="12" t="inlineStr">
-        <is>
-          <t>Pls-dloc</t>
-        </is>
-      </c>
-      <c r="C163" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D163" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="E163" s="12" t="inlineStr">
-        <is>
-          <t>#NO MATCH</t>
-        </is>
-      </c>
-      <c r="F163" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="13" t="inlineStr"/>
-      <c r="H163" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="9" t="inlineStr">
-        <is>
-          <t>Point 50</t>
-        </is>
-      </c>
-      <c r="B164" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C164" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D164" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E164" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="10" t="inlineStr"/>
-      <c r="H164" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="15" t="inlineStr">
+      <c r="A143" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H165" s="16" t="n">
-        <v>0</v>
+      <c r="H143" s="16" t="n">
+        <v>14210.81000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A143:G143"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -5808,7 +5069,6 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A165:G165"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
